--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3713825.766590063</v>
+        <v>3817237.502554142</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498525</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7426309.297197876</v>
+        <v>7391279.575925121</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>127.4503987265494</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5146946421426</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883131</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734099341</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -823,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983813</v>
+        <v>80.92562490594126</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>125.0171131637562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>71.68269007697874</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>152.0946415035385</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -981,7 +983,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554016</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>171.1007110762125</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>87.62154955555292</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>37.3839194607221</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>275.2645553046539</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2.687520697591441</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>121.5760921225981</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881297</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>9.146142788179874</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>32.37373183919349</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1616,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784694</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8253826161913524</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>9.14614278817986</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>65.56423921895247</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2090,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2245,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>26.27614159852288</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>192.8170508184369</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>20.38427178198041</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>136.6755965411354</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8253826161909023</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>78.89395497654138</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808248</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3080,10 +3082,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>56.03635866484527</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652578</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808193</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096048</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972051</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308926</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652577</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>175.9612165073974</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3554,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652689</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808192</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>220.4289331391115</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972051</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>155.2162996298073</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4141,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>99.97427419833814</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>178.4855482404955</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939505</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052365</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609168</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609168</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609168</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609168</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265597</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2641.774278995483</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2434.183678346854</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811061</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158125</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410636</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886739</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533339</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125854</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619334</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431605</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199862</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471661</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266128</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501174</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>794.6070935315613</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="C4" t="n">
-        <v>625.6709106036544</v>
+        <v>462.8479560159216</v>
       </c>
       <c r="D4" t="n">
-        <v>625.6709106036544</v>
+        <v>462.8479560159216</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>462.8479560159216</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>315.9580085180112</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>148.2551718927301</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>148.2551718927301</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962273</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.645724237293</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.35556815965</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588477</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886951</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068846</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596431</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181838</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181838</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181838</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181838</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181838</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181838</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181838</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181838</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="Y4" t="n">
-        <v>794.6070935315613</v>
+        <v>631.7841389438285</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.11348746897</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>942.9472709150261</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>584.6815723082757</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>198.8933197100314</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>191.947818960828</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>180.9157728462285</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136264</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792693</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522579</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2377.852659508903</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1987.713327533092</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,37 +4661,37 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218338</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218338</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218338</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218338</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218338</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218338</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218338</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.3348699696228</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.788049458848</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886955</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>832.3803901055048</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S7" t="n">
-        <v>832.3803901055048</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T7" t="n">
-        <v>610.6137746750309</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U7" t="n">
-        <v>610.6137746750309</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V7" t="n">
-        <v>355.929286469144</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W7" t="n">
-        <v>66.51211643218338</v>
+        <v>631.4698357812249</v>
       </c>
       <c r="X7" t="n">
-        <v>66.51211643218338</v>
+        <v>631.4698357812249</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218338</v>
+        <v>631.4698357812249</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.416669135309</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4817,37 +4819,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3287.844286800359</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3034.313810074196</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2703.250922730625</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W8" t="n">
-        <v>2350.482267460511</v>
+        <v>2400.229512818681</v>
       </c>
       <c r="X8" t="n">
-        <v>1977.016509199431</v>
+        <v>2026.763754557601</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.016509199431</v>
+        <v>1636.624422581789</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4874,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>236.9296204287689</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C10" t="n">
-        <v>236.9296204287689</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D10" t="n">
-        <v>236.9296204287689</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>236.9296204287689</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>236.9296204287689</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>69.22678380348788</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>69.22678380348788</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025388</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="T10" t="n">
-        <v>639.3706644025388</v>
+        <v>507.4345062145379</v>
       </c>
       <c r="U10" t="n">
-        <v>639.3706644025388</v>
+        <v>507.4345062145379</v>
       </c>
       <c r="V10" t="n">
-        <v>639.3706644025388</v>
+        <v>384.6303727573681</v>
       </c>
       <c r="W10" t="n">
-        <v>639.3706644025388</v>
+        <v>384.6303727573681</v>
       </c>
       <c r="X10" t="n">
-        <v>639.3706644025388</v>
+        <v>384.6303727573681</v>
       </c>
       <c r="Y10" t="n">
-        <v>418.5780852590086</v>
+        <v>163.8377936138381</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,34 +5029,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694709</v>
@@ -5063,7 +5065,7 @@
         <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492579</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L12" t="n">
-        <v>506.2737913123336</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.652278938886</v>
+        <v>1522.212916266271</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>2149.810879820878</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2149.810879820878</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597624</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2164.361806256059</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1875.286579600257</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1620.602091394371</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1331.18492135741</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>1103.195370459393</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>882.4027913158625</v>
       </c>
     </row>
     <row r="14">
@@ -5261,40 +5263,40 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5303,7 +5305,7 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>1702.07903472198</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2253.988764961267</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474266</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5458,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168622</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597624</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597624</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597624</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>244.7670222746423</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>103.0551911168404</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5695,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2380.736579318693</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2380.736579318693</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2161.135114341634</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1872.059887685832</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1617.375399479945</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.958229442984</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>1099.968678544967</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>879.176099401437</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,37 +5740,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5783,7 +5785,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5829,22 +5831,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2420.421526410036</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2237.56669206494</v>
       </c>
       <c r="T22" t="n">
-        <v>2252.19838578386</v>
+        <v>2017.965227087881</v>
       </c>
       <c r="U22" t="n">
-        <v>1963.123159128057</v>
+        <v>1728.890000432079</v>
       </c>
       <c r="V22" t="n">
-        <v>1708.43867092217</v>
+        <v>1728.890000432079</v>
       </c>
       <c r="W22" t="n">
-        <v>1419.02150088521</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5980,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,13 +5989,13 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6072,19 +6074,19 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.372910063109</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.518075718013</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,13 +6238,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6306,25 +6308,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>835.5837926935562</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>835.5837926935562</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,31 +6384,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
@@ -6418,16 +6420,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2529.355041543136</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>255.5942300127263</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913445</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>2715.159942084666</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>3210.485548300424</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>3210.485548300424</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>3838.083511855031</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>4389.993242094319</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>4654.19349744548</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656817</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954148</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319331</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656825</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150031</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942664</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1799.722477977784</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1545.037989771897</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1255.620819734936</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1027.631268836919</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>806.8386896933887</v>
       </c>
     </row>
     <row r="38">
@@ -7154,52 +7156,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O39" t="n">
-        <v>2252.221377756499</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319331</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656825</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150031</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942664</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580124</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345486</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384031</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1754.805592491204</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="44">
@@ -7634,52 +7636,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123002</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998286</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797189</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797189</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7840,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1508.097421288549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1218.680251251588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
   </sheetData>
@@ -23416,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>139.4693302300325</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>185.0317184880948</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>145.6085800303778</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>72.11969353038566</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0.8110074911691925</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24133,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>40.09910511159877</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>24.58839950885135</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>45.99097492814126</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>11.93987647707698</v>
       </c>
       <c r="E28" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24844,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>61.40075786968248</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>90.3976039817239</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>110.2232578818468</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25558,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>65.75554125013261</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>63.36835372228748</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>46.45968844823103</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>73.65209508333248</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>650946.0268051153</v>
+        <v>640177.2699200503</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>650946.0268051153</v>
+        <v>640177.2699200503</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>650946.0268051153</v>
+        <v>640177.2699200503</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>650946.0268051153</v>
+        <v>640177.2699200503</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>650946.0268051153</v>
+        <v>640177.2699200503</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176755</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176759</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176758</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="E2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="F2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="K2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="M2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="N2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="O2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="P2" t="n">
         <v>786967.9346977557</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="K2" t="n">
-        <v>800515.725617677</v>
-      </c>
-      <c r="L2" t="n">
-        <v>800515.7256176764</v>
-      </c>
-      <c r="M2" t="n">
-        <v>800515.7256176772</v>
-      </c>
-      <c r="N2" t="n">
-        <v>800515.725617677</v>
-      </c>
-      <c r="O2" t="n">
-        <v>800515.7256176762</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.9346977561</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363176</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551201</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405276</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687958</v>
       </c>
       <c r="F4" t="n">
+        <v>15436.64000687962</v>
+      </c>
+      <c r="G4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="G4" t="n">
-        <v>15436.64000687966</v>
-      </c>
       <c r="H4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687968</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="L4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="K4" t="n">
-        <v>23427.49926997318</v>
-      </c>
-      <c r="L4" t="n">
-        <v>23427.49926997321</v>
-      </c>
       <c r="M4" t="n">
-        <v>23427.49926997314</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>23427.49926997314</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>23427.49926997314</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687966</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26476,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729759.7047753616</v>
+        <v>-729759.704775363</v>
       </c>
       <c r="C6" t="n">
-        <v>598985.04095223</v>
+        <v>598985.0409522299</v>
       </c>
       <c r="D6" t="n">
-        <v>598985.0409522299</v>
+        <v>598985.0409522301</v>
       </c>
       <c r="E6" t="n">
-        <v>344996.3030596134</v>
+        <v>344996.3030596137</v>
       </c>
       <c r="F6" t="n">
-        <v>670408.764866969</v>
+        <v>670408.7648669691</v>
       </c>
       <c r="G6" t="n">
-        <v>670408.764866969</v>
+        <v>670408.7648669688</v>
       </c>
       <c r="H6" t="n">
-        <v>670408.764866969</v>
+        <v>670408.7648669692</v>
       </c>
       <c r="I6" t="n">
-        <v>670408.764866969</v>
+        <v>670408.7648669688</v>
       </c>
       <c r="J6" t="n">
         <v>452877.5624696916</v>
       </c>
       <c r="K6" t="n">
-        <v>654496.3925001568</v>
+        <v>670408.764866969</v>
       </c>
       <c r="L6" t="n">
-        <v>673924.1104937878</v>
+        <v>670408.7648669693</v>
       </c>
       <c r="M6" t="n">
-        <v>588869.0825582766</v>
+        <v>585353.7369314573</v>
       </c>
       <c r="N6" t="n">
-        <v>673924.1104937885</v>
+        <v>670408.7648669691</v>
       </c>
       <c r="O6" t="n">
-        <v>673924.1104937876</v>
+        <v>670408.7648669691</v>
       </c>
       <c r="P6" t="n">
-        <v>670408.7648669693</v>
+        <v>670408.764866969</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,10 +26740,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26802,7 +26804,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26960,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>254.4799713457124</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2164060363264</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>15.42679550389683</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004739</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27591,7 +27593,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>93.56754018833857</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>222.9250743103417</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>217.6364591749305</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>8.731269105724749</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.310603114494427</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>166.5340506788981</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>73.97641341275914</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>93.66489971224668</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>130.5615512012299</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-1.092834328777952e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28798,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003807</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781687</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970247</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138789</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,28 +31837,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>555.1777416630679</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>268.6704608606955</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31865,7 +31867,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32072,10 +32074,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
@@ -32084,7 +32086,7 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>169.2687847673334</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
@@ -32093,13 +32095,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>163.4402738502014</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32312,31 +32314,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>377.6350660745949</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>716.7980286000566</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M21" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>167.1165249313363</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33181,34 +33183,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>169.6252075171348</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,7 +33499,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33512,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>491.597732526532</v>
       </c>
       <c r="P33" t="n">
-        <v>400.8433522134829</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33679,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33737,28 +33739,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,31 +33973,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>220.7280629601522</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>400.8433522134843</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34208,7 +34210,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,19 +34447,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,7 +34468,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597696</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.9421752903428</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996669</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286435</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.123718484038</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230781</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567571</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106919</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014208</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340048</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>416.6233618831937</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>134.6960534463653</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35720,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,7 +35734,7 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>27.13475084531504</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
@@ -35741,13 +35743,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>29.46586643587111</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>235.5010321525766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>585.4563165167233</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>25.73094315394599</v>
       </c>
       <c r="M21" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>351.9532034556938</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>27.13475084531481</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>23.94570355317081</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37160,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="P33" t="n">
-        <v>266.8689447991526</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>266.868944799154</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,19 +38095,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3817237.502554142</v>
+        <v>3813224.89254015</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>79.76470074483056</v>
       </c>
       <c r="E2" t="n">
-        <v>127.4503987265494</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>63.92502798775159</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>80.92562490594126</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>71.68269007697874</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>310.9299993360295</v>
       </c>
     </row>
     <row r="6">
@@ -983,7 +983,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554016</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>171.1007110762125</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>275.2645553046539</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>308.287298460646</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>95.17890526428893</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>121.5760921225981</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881297</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>32.37373183919349</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417092</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>65.56423921895247</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>26.27614159852288</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>32.27552175740353</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.38427178198041</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>136.6755965411354</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>78.89395497654138</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3082,10 +3082,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>56.03635866484527</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>175.9612165073974</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>220.4289331391115</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>155.2162996298073</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>178.4855482404955</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796261</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="C2" t="n">
-        <v>552.8079389392144</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="D2" t="n">
-        <v>552.8079389392144</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>424.0701624477504</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1698.509627919561</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
         <v>1212.42807043813</v>
@@ -4433,28 +4433,28 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>631.7841389438285</v>
+        <v>450.1356741135893</v>
       </c>
       <c r="C4" t="n">
-        <v>462.8479560159216</v>
+        <v>281.1994911856824</v>
       </c>
       <c r="D4" t="n">
-        <v>462.8479560159216</v>
+        <v>131.0828517733467</v>
       </c>
       <c r="E4" t="n">
-        <v>462.8479560159216</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F4" t="n">
-        <v>315.9580085180112</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G4" t="n">
-        <v>148.2551718927301</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>148.2551718927301</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U4" t="n">
-        <v>631.7841389438285</v>
+        <v>631.784138943829</v>
       </c>
       <c r="V4" t="n">
-        <v>631.7841389438285</v>
+        <v>631.784138943829</v>
       </c>
       <c r="W4" t="n">
-        <v>631.7841389438285</v>
+        <v>631.784138943829</v>
       </c>
       <c r="X4" t="n">
-        <v>631.7841389438285</v>
+        <v>631.784138943829</v>
       </c>
       <c r="Y4" t="n">
-        <v>631.7841389438285</v>
+        <v>631.784138943829</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1311.909787855438</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C5" t="n">
-        <v>942.9472709150261</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>584.6815723082757</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>198.8933197100314</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>191.947818960828</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>180.9157728462285</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>1904.487375535339</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.50962791956</v>
+        <v>1590.416669135309</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.156415538731</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>458.6408346941415</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>458.6408346941415</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>458.6408346941415</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>78.3348699696229</v>
@@ -4731,46 +4731,46 @@
         <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>631.4698357812249</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>631.4698357812249</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>631.4698357812249</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1636.624422581789</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>2400.229512818681</v>
+        <v>2656.568750250375</v>
       </c>
       <c r="X8" t="n">
-        <v>2026.763754557601</v>
+        <v>2656.568750250375</v>
       </c>
       <c r="Y8" t="n">
-        <v>1636.624422581789</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.8377936138381</v>
+        <v>649.4080837454737</v>
       </c>
       <c r="C10" t="n">
-        <v>163.8377936138381</v>
+        <v>480.4719008175668</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>330.3552614052311</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>330.3552614052311</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>330.3552614052311</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>162.6524247799501</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O10" t="n">
         <v>809.015235706886</v>
@@ -4986,28 +4986,28 @@
         <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450119</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="T10" t="n">
-        <v>507.4345062145379</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="U10" t="n">
-        <v>507.4345062145379</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="V10" t="n">
-        <v>384.6303727573681</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="W10" t="n">
-        <v>384.6303727573681</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="X10" t="n">
-        <v>384.6303727573681</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="Y10" t="n">
-        <v>163.8377936138381</v>
+        <v>831.0565485757135</v>
       </c>
     </row>
     <row r="11">
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>95.5840502527391</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239598</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.212916266271</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>2149.810879820878</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2149.810879820878</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2164.361806256059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1875.286579600257</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1620.602091394371</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1331.18492135741</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1103.195370459393</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>882.4027913158625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273905</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684978</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>697.5276345711973</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2380.736579318693</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2380.736579318693</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2161.135114341634</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1872.059887685832</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1617.375399479945</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.958229442984</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.968678544967</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>879.176099401437</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2420.421526410036</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2237.56669206494</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2017.965227087881</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1728.890000432079</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1728.890000432079</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1439.472830395119</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.483279497101</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>990.6907003535711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,40 +5971,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>923.0670414349513</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2426.372910063109</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2243.518075718013</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2023.916610740955</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>2023.916610740955</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V25" t="n">
-        <v>1769.232122535068</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W25" t="n">
-        <v>1479.814952498107</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.82540160009</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,13 +6238,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>923.0670414349513</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>835.5837926935562</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>835.5837926935562</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2529.355041543136</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.843151638089</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>572.9069687101821</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>422.7903292978464</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>422.7903292978464</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>422.7903292978464</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>255.5942300127263</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611859</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683287</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6739,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.7084350851671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>696.7084350851671</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>546.5917956728314</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6928,7 +6928,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>806.8386896933887</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>637.9025067654818</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1799.722477977784</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1545.037989771897</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1255.620819734936</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1027.631268836919</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>806.8386896933887</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>175.8744207939072</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.6905094135296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
         <v>402.7245934908939</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1754.805592491204</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.121104285317</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2072.35525930079</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2495.978408795858</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>577.8620388433919</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7614,7 +7614,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>759.5105036736317</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>809.0422355233313</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>640.1060525954244</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1508.097421288549</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1218.680251251588</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>990.6907003535711</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>990.6907003535711</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>185.0317184880948</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.22910392194222</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.8110074911691925</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>40.09910511159877</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>45.99097492814126</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>11.93987647707698</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>61.40075786968248</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>90.3976039817239</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>110.2232578818468</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>65.75554125013261</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>63.36835372228748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>73.65209508333248</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>640177.2699200503</v>
+        <v>640177.2699200504</v>
       </c>
     </row>
     <row r="10">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176755</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176759</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.725617676</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="G2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="F2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="G2" t="n">
-        <v>786967.9346977556</v>
-      </c>
       <c r="H2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="I2" t="n">
         <v>786967.9346977556</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="K2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="N2" t="n">
         <v>786967.9346977558</v>
@@ -26355,7 +26355,7 @@
         <v>786967.9346977558</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073547</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405247</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687958</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687977</v>
       </c>
       <c r="G4" t="n">
+        <v>15436.64000687973</v>
+      </c>
+      <c r="H4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15436.64000687968</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
@@ -26447,7 +26447,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
@@ -26456,10 +26456,10 @@
         <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="P4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15436.64000687966</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-729759.704775363</v>
       </c>
       <c r="C6" t="n">
-        <v>598985.0409522299</v>
+        <v>598985.0409522305</v>
       </c>
       <c r="D6" t="n">
         <v>598985.0409522301</v>
       </c>
       <c r="E6" t="n">
-        <v>344996.3030596137</v>
+        <v>344648.9238052577</v>
       </c>
       <c r="F6" t="n">
-        <v>670408.7648669691</v>
+        <v>670061.385612612</v>
       </c>
       <c r="G6" t="n">
-        <v>670408.7648669688</v>
+        <v>670061.3856126121</v>
       </c>
       <c r="H6" t="n">
-        <v>670408.7648669692</v>
+        <v>670061.3856126119</v>
       </c>
       <c r="I6" t="n">
-        <v>670408.7648669688</v>
+        <v>670061.3856126119</v>
       </c>
       <c r="J6" t="n">
-        <v>452877.5624696916</v>
+        <v>452530.1832153344</v>
       </c>
       <c r="K6" t="n">
-        <v>670408.764866969</v>
+        <v>670061.385612612</v>
       </c>
       <c r="L6" t="n">
-        <v>670408.7648669693</v>
+        <v>670061.385612612</v>
       </c>
       <c r="M6" t="n">
-        <v>585353.7369314573</v>
+        <v>585006.3576771005</v>
       </c>
       <c r="N6" t="n">
-        <v>670408.7648669691</v>
+        <v>670061.3856126121</v>
       </c>
       <c r="O6" t="n">
-        <v>670408.7648669691</v>
+        <v>670061.3856126121</v>
       </c>
       <c r="P6" t="n">
-        <v>670408.764866969</v>
+        <v>670061.3856126121</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="C3" t="n">
         <v>1089.776700593298</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593299</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>274.9183408758524</v>
       </c>
       <c r="E2" t="n">
-        <v>254.4799713457124</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>82.50893465881758</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>15.42679550389683</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>222.9250743103417</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>75.30793932002405</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.731269105724749</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>73.97641341275914</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>77.95064019540763</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28025,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>49.57610965003185</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>130.5615512012299</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-1.092834328777952e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31609,7 +31609,7 @@
         <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138789</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233476</v>
@@ -31621,7 +31621,7 @@
         <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002919</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>463.9598929192562</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>268.6704608606955</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>169.2687847673334</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200311</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>716.7980286000566</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>167.1165249313363</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>316.3837382263848</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33183,34 +33183,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>169.6252075171348</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33496,10 +33496,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33508,19 +33508,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>491.597732526532</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>220.7280629601522</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34131,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34213,16 +34213,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34231,7 +34231,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>160.6314956130963</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>342.490526454265</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340048</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013293</v>
@@ -35269,7 +35269,7 @@
         <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859617</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>332.6181808359229</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>134.6960534463653</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>27.13475084531504</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366978</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>585.4563165167233</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.13475084531481</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>182.4093308120545</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>23.94570355317081</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37156,19 +37156,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>349.0014880820875</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>82.88662398579324</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37879,7 +37879,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>20.64972152707474</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>211.1488143709317</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3813224.89254015</v>
+        <v>3814985.422842936</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>79.76470074483056</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>8.296101769922931</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189221</v>
       </c>
       <c r="U3" t="n">
         <v>225.7871683969286</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,10 +825,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>63.92502798775159</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>238.1138357058005</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>279.3751023006571</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>310.9299993360295</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.0880274467727</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>332.1676138668255</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>308.287298460646</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1299,16 +1299,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>95.17890526428893</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.28185552386317</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710086</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534142</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417092</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583824</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>212.4076860934771</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>32.27552175740353</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>121.8000472740347</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>83.06560892428173</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.509627919561</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>1698.509627919561</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>531.9613661254182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>116.8889159704146</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180641</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919561</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919561</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>450.1356741135893</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>281.1994911856824</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>131.0828517733467</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218345</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>631.784138943829</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="V4" t="n">
-        <v>631.784138943829</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="W4" t="n">
-        <v>631.784138943829</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="X4" t="n">
-        <v>631.784138943829</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y4" t="n">
-        <v>631.784138943829</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1590.416669135309</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410104</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066533</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796419</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535339</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1590.416669135309</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="6">
@@ -4637,31 +4637,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4716,16 +4716,16 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1879.82957821044</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1510.867061270028</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1152.601362663278</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1152.601362663278</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>741.6154578736703</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,7 +4801,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
@@ -4813,43 +4813,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250375</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X8" t="n">
-        <v>2656.568750250375</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>2266.429418274562</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>649.4080837454737</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>480.4719008175668</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>330.3552614052311</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>330.3552614052311</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>330.3552614052311</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>162.6524247799501</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y10" t="n">
-        <v>831.0565485757135</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5032,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.388077746847</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,25 +5512,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694706</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>244.2098454714574</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L18" t="n">
         <v>739.5354516872161</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000582</v>
@@ -5676,49 +5676,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5749,10 +5749,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>929.7309773356194</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5989,19 +5989,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098237</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819168</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695811</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783593</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640063</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>216.8470138298251</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6460,7 +6460,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,31 +6697,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6961,28 +6961,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7004,16 +7004,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H37" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
   </sheetData>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>46.45968844823039</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>72.11969353038562</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>13.30196929556007</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>114.1584408891656</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>43.72409101823415</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393062</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>640177.2699200504</v>
+        <v>640177.2699200503</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>640177.2699200503</v>
+        <v>640177.2699200504</v>
       </c>
     </row>
     <row r="13">
@@ -26322,13 +26322,13 @@
         <v>800515.725617676</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="H2" t="n">
         <v>786967.9346977558</v>
@@ -26337,25 +26337,25 @@
         <v>786967.9346977556</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="K2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
       <c r="M2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="N2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="O2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="P2" t="n">
         <v>786967.9346977558</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.934697756</v>
       </c>
     </row>
     <row r="3">
@@ -26365,31 +26365,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405247</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687977</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687973</v>
@@ -26450,7 +26450,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687967</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729759.704775363</v>
+        <v>-729759.7047753623</v>
       </c>
       <c r="C6" t="n">
+        <v>598985.0409522299</v>
+      </c>
+      <c r="D6" t="n">
         <v>598985.0409522305</v>
       </c>
-      <c r="D6" t="n">
-        <v>598985.0409522301</v>
-      </c>
       <c r="E6" t="n">
-        <v>344648.9238052577</v>
+        <v>344961.5651341778</v>
       </c>
       <c r="F6" t="n">
-        <v>670061.385612612</v>
+        <v>670374.0269415335</v>
       </c>
       <c r="G6" t="n">
-        <v>670061.3856126121</v>
+        <v>670374.026941533</v>
       </c>
       <c r="H6" t="n">
-        <v>670061.3856126119</v>
+        <v>670374.0269415334</v>
       </c>
       <c r="I6" t="n">
-        <v>670061.3856126119</v>
+        <v>670374.0269415333</v>
       </c>
       <c r="J6" t="n">
-        <v>452530.1832153344</v>
+        <v>452842.8245442556</v>
       </c>
       <c r="K6" t="n">
-        <v>670061.385612612</v>
+        <v>670374.0269415333</v>
       </c>
       <c r="L6" t="n">
-        <v>670061.385612612</v>
+        <v>670374.0269415335</v>
       </c>
       <c r="M6" t="n">
-        <v>585006.3576771005</v>
+        <v>585318.9990060217</v>
       </c>
       <c r="N6" t="n">
-        <v>670061.3856126121</v>
+        <v>670374.0269415333</v>
       </c>
       <c r="O6" t="n">
-        <v>670061.3856126121</v>
+        <v>670374.0269415332</v>
       </c>
       <c r="P6" t="n">
-        <v>670061.3856126121</v>
+        <v>670374.0269415334</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26807,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483759</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.198799748375</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>274.9183408758524</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.3116626173975</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.051603248924948e-12</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,10 +27545,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>82.50893465881758</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,7 +27593,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>48.0980024998124</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27621,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>102.5552677716047</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>75.30793932002405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.7439527351646</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>78.7541117866279</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>77.95064019540763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>49.57610965003185</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282316</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-1.071776128894229e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="15">
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192562</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200311</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>289.7537444526272</v>
+        <v>287.9685048518522</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32949,7 +32949,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33444,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859617</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359229</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366978</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>151.9123054782682</v>
+        <v>150.1270658774932</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
